--- a/Coverage Survey/Burkina Faso/Oncho/2024/oct 2024/bf_oncho_cov_3_2410_cap.xlsx
+++ b/Coverage Survey/Burkina Faso/Oncho/2024/oct 2024/bf_oncho_cov_3_2410_cap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Coverage Survey\Burkina Faso\Oncho\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Coverage Survey\Burkina Faso\Oncho\2024\oct 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0926F004-57B8-4C32-BEF7-24229A17969D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F444A87-1368-483B-885B-D8DDB45C3856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1061,10 +1061,10 @@
     <t>30 (GAOUA)</t>
   </si>
   <si>
-    <t>(Mar 2024) BFA Cov ONCHO - 3.Formulaire CAP</t>
-  </si>
-  <si>
-    <t>bf_oncho_cov_3_202403_cap</t>
+    <t>bf_oncho_cov_3_2410_cap</t>
+  </si>
+  <si>
+    <t>(Oct 2024) BFA Cov ONCHO - 3.Formulaire CAP</t>
   </si>
 </sst>
 </file>
@@ -4670,7 +4670,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4693,10 +4693,10 @@
     </row>
     <row r="2" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>342</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>343</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>85</v>
